--- a/Hedge Funds (1).xlsx
+++ b/Hedge Funds (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA02DC5-6599-4DE1-A46C-944EF39207A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A368EBB2-8F37-4371-8D97-A2E96F9C54DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
     210.9B with puts/calls</t>
       </text>
     </comment>
-    <comment ref="W4" authorId="6" shapeId="0" xr:uid="{C458FA31-CB9B-459E-B4D3-6F93CD9B9108}">
+    <comment ref="X4" authorId="6" shapeId="0" xr:uid="{C458FA31-CB9B-459E-B4D3-6F93CD9B9108}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -393,7 +393,7 @@
 All Weather 12%</t>
       </text>
     </comment>
-    <comment ref="AC22" authorId="34" shapeId="0" xr:uid="{571E6B33-9F0B-402B-B6AF-3026724B96B6}">
+    <comment ref="AD22" authorId="34" shapeId="0" xr:uid="{571E6B33-9F0B-402B-B6AF-3026724B96B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -402,7 +402,7 @@
 Pure alpha 1991</t>
       </text>
     </comment>
-    <comment ref="AL22" authorId="35" shapeId="0" xr:uid="{65A0F6CF-356C-4A90-96D2-FFE35AFE2E62}">
+    <comment ref="AM22" authorId="35" shapeId="0" xr:uid="{65A0F6CF-356C-4A90-96D2-FFE35AFE2E62}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -410,7 +410,7 @@
     All Weather +16%</t>
       </text>
     </comment>
-    <comment ref="AM22" authorId="36" shapeId="0" xr:uid="{267E6B37-EE49-4656-A61F-E5E2C45BA32F}">
+    <comment ref="AN22" authorId="36" shapeId="0" xr:uid="{267E6B37-EE49-4656-A61F-E5E2C45BA32F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -474,7 +474,7 @@
     Also notes 35.5B</t>
       </text>
     </comment>
-    <comment ref="AI28" authorId="44" shapeId="0" xr:uid="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
+    <comment ref="AJ28" authorId="44" shapeId="0" xr:uid="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1568">
   <si>
     <t>Name</t>
   </si>
@@ -5328,6 +5328,9 @@
   </si>
   <si>
     <t>Fundamental</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -5896,7 +5899,7 @@
   <threadedComment ref="S4" dT="2025-01-11T20:11:02.62" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{B533632F-6233-41C2-A96C-9A84235E21C6}">
     <text>210.9B with puts/calls</text>
   </threadedComment>
-  <threadedComment ref="W4" dT="2025-04-05T10:22:31.39" personId="{C4A9F9C5-0550-4D3E-A9C0-F2F2E5238B0D}" id="{C458FA31-CB9B-459E-B4D3-6F93CD9B9108}">
+  <threadedComment ref="X4" dT="2025-04-05T10:22:31.39" personId="{C4A9F9C5-0550-4D3E-A9C0-F2F2E5238B0D}" id="{C458FA31-CB9B-459E-B4D3-6F93CD9B9108}">
     <text xml:space="preserve">Pod shop = multi strategy </text>
   </threadedComment>
   <threadedComment ref="P5" dT="2024-03-24T23:23:21.67" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{4762A1A1-5314-4304-962C-F1489B64BA4B}">
@@ -5983,14 +5986,14 @@
 Pure Alpha 18%
 All Weather 12%</text>
   </threadedComment>
-  <threadedComment ref="AC22" dT="2024-11-11T21:29:45.05" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{571E6B33-9F0B-402B-B6AF-3026724B96B6}">
+  <threadedComment ref="AD22" dT="2024-11-11T21:29:45.05" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{571E6B33-9F0B-402B-B6AF-3026724B96B6}">
     <text>All weather opened 1996
 Pure alpha 1991</text>
   </threadedComment>
-  <threadedComment ref="AL22" dT="2024-11-11T21:44:28.32" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{65A0F6CF-356C-4A90-96D2-FFE35AFE2E62}">
+  <threadedComment ref="AM22" dT="2024-11-11T21:44:28.32" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{65A0F6CF-356C-4A90-96D2-FFE35AFE2E62}">
     <text>All Weather +16%</text>
   </threadedComment>
-  <threadedComment ref="AM22" dT="2024-11-11T21:45:06.55" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{267E6B37-EE49-4656-A61F-E5E2C45BA32F}">
+  <threadedComment ref="AN22" dT="2024-11-11T21:45:06.55" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{267E6B37-EE49-4656-A61F-E5E2C45BA32F}">
     <text>All Weather -5.1%</text>
   </threadedComment>
   <threadedComment ref="C23" dT="2025-04-08T16:50:08.35" personId="{C4A9F9C5-0550-4D3E-A9C0-F2F2E5238B0D}" id="{3C8A7604-D0B1-4BD2-8EB5-1FC90AAA41A6}">
@@ -6014,7 +6017,7 @@
   <threadedComment ref="D28" dT="2023-01-28T20:34:58.21" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{9F5197FC-413A-4526-8395-DB7D8217FC78}">
     <text>Also notes 35.5B</text>
   </threadedComment>
-  <threadedComment ref="AI28" dT="2023-01-28T20:41:18.37" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
+  <threadedComment ref="AJ28" dT="2023-01-28T20:41:18.37" personId="{4F866D09-A2D3-41DA-A24C-20DE51662D93}" id="{5F7F3924-A5F8-4D80-90C0-CA8CC6527A95}">
     <text>https://www.bloomberg.com/news/articles/2022-08-26/lone-pine-assets-shrivel-as-hedge-fund-reels-from-record-losses?leadSource=uverify%20wall</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -6092,7 +6095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8001A6-1B33-4EEE-B2A7-E66E0A0975B5}">
-  <dimension ref="A1:BP242"/>
+  <dimension ref="A1:BQ242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -6111,20 +6114,20 @@
     <col min="9" max="14" width="9.28515625" style="3"/>
     <col min="15" max="15" width="8.7109375" style="3"/>
     <col min="16" max="16" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="9.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="12" style="6" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="12" style="8" customWidth="1"/>
-    <col min="26" max="27" width="10.7109375" customWidth="1"/>
+    <col min="17" max="22" width="9.28515625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="12" style="8" customWidth="1"/>
+    <col min="27" max="28" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="AA1">
-        <f>SUM(AA3:AA276)</f>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AB1">
+        <f>SUM(AB3:AB276)</f>
         <v>30724</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -6185,159 +6188,162 @@
       <c r="U2" s="3" t="s">
         <v>1557</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>225</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>226</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>723</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>229</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>228</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>714</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>715</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>713</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2024</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2023</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2022</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>2021</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>2020</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>2019</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2018</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>2017</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>2016</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>2015</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>2014</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>2013</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>2012</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>2011</v>
       </c>
-      <c r="AU2">
-        <f>+AT2-1</f>
+      <c r="AV2">
+        <f>+AU2-1</f>
         <v>2010</v>
       </c>
-      <c r="AV2">
-        <f t="shared" ref="AV2:BJ2" si="0">+AU2-1</f>
+      <c r="AW2">
+        <f t="shared" ref="AW2:BK2" si="0">+AV2-1</f>
         <v>2009</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <f t="shared" si="0"/>
         <v>1995</v>
       </c>
-      <c r="BK2">
+      <c r="BL2">
         <v>1994</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>1993</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <v>1992</v>
       </c>
-      <c r="BN2">
+      <c r="BO2">
         <v>1991</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6383,20 +6389,21 @@
       <c r="U3" s="4">
         <v>258701.144516</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="4"/>
+      <c r="W3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1965</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>+A3+1</f>
         <v>2</v>
@@ -6449,87 +6456,90 @@
       <c r="U4" s="4">
         <v>187880.17665800001</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="4">
+        <v>207076.08522000001</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1989</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>5500</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>722</v>
       </c>
-      <c r="AG4" s="9">
+      <c r="AH4" s="9">
         <v>0.15</v>
       </c>
-      <c r="AH4" s="9">
+      <c r="AI4" s="9">
         <v>0.1</v>
       </c>
-      <c r="AI4" s="9">
+      <c r="AJ4" s="9">
         <v>0.12</v>
       </c>
-      <c r="AJ4" s="9">
+      <c r="AK4" s="9">
         <v>0.1361</v>
       </c>
-      <c r="AK4" s="9">
+      <c r="AL4" s="9">
         <v>0.25800000000000001</v>
       </c>
-      <c r="AL4" s="9">
+      <c r="AM4" s="9">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="AM4" s="9">
+      <c r="AN4" s="9">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AN4" s="9">
+      <c r="AO4" s="9">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="AO4" s="9">
+      <c r="AP4" s="9">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="AP4" s="9">
+      <c r="AQ4" s="9">
         <v>0.12540000000000001</v>
       </c>
-      <c r="AQ4" s="9">
+      <c r="AR4" s="9">
         <v>0.12089999999999999</v>
       </c>
-      <c r="AR4" s="9">
+      <c r="AS4" s="9">
         <v>0.13270000000000001</v>
       </c>
-      <c r="AS4" s="9">
+      <c r="AT4" s="9">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="AT4" s="9">
+      <c r="AU4" s="9">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="AU4" s="9">
+      <c r="AV4" s="9">
         <v>0.13400000000000001</v>
       </c>
-      <c r="AV4" s="9">
+      <c r="AW4" s="9">
         <v>0.17199999999999999</v>
       </c>
-      <c r="AW4" s="9">
+      <c r="AX4" s="9">
         <v>-0.03</v>
       </c>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9">
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9">
         <v>0.17</v>
       </c>
-      <c r="AZ4" s="9">
+      <c r="BA4" s="9">
         <v>0.08</v>
       </c>
-      <c r="BA4" s="9">
+      <c r="BB4" s="9">
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ref="A5:A84" si="1">+A4+1</f>
         <v>3</v>
@@ -6582,101 +6592,102 @@
       <c r="U5" s="4">
         <v>527316.42162100004</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="4"/>
+      <c r="W5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="X5" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="Y5" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1990</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>235</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2932</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AH5" s="9">
         <v>0.15</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AI5" s="9">
         <v>0.153</v>
       </c>
-      <c r="AI5" s="9">
+      <c r="AJ5" s="9">
         <v>0.38</v>
       </c>
-      <c r="AJ5" s="9">
+      <c r="AK5" s="9">
         <v>0.26</v>
       </c>
-      <c r="AK5" s="9">
+      <c r="AL5" s="9">
         <v>0.24399999999999999</v>
       </c>
-      <c r="AL5" s="9">
+      <c r="AM5" s="9">
         <v>0.19400000000000001</v>
       </c>
-      <c r="AM5" s="9">
+      <c r="AN5" s="9">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="AN5" s="9">
+      <c r="AO5" s="9">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AO5" s="9">
+      <c r="AP5" s="9">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AP5" s="9">
+      <c r="AQ5" s="9">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AQ5" s="9">
+      <c r="AR5" s="9">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AR5" s="9">
+      <c r="AS5" s="9">
         <v>0.19400000000000001</v>
       </c>
-      <c r="AS5" s="9">
+      <c r="AT5" s="9">
         <v>0.25900000000000001</v>
       </c>
-      <c r="AT5" s="9">
+      <c r="AU5" s="9">
         <v>0.2</v>
       </c>
-      <c r="AU5" s="9">
+      <c r="AV5" s="9">
         <v>0.1</v>
       </c>
-      <c r="AV5" s="9">
+      <c r="AW5" s="9">
         <v>0.62</v>
       </c>
-      <c r="AW5" s="9">
+      <c r="AX5" s="9">
         <v>-0.55000000000000004</v>
-      </c>
-      <c r="AX5" s="9">
-        <v>0.3</v>
       </c>
       <c r="AY5" s="9">
         <v>0.3</v>
       </c>
       <c r="AZ5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="BA5" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BF5" s="9">
+      <c r="BG5" s="9">
         <v>0.45</v>
       </c>
-      <c r="BK5" s="9">
+      <c r="BL5" s="9">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="BM5" s="9">
+      <c r="BN5" s="9">
         <v>0.4</v>
       </c>
-      <c r="BN5" s="9">
+      <c r="BO5" s="9">
         <v>0.43</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BQ5" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6720,23 +6731,24 @@
       <c r="U6" s="4">
         <v>399265.21921299997</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="4"/>
+      <c r="W6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="X6" s="6" t="s">
         <v>1477</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="Y6" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2600</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6768,38 +6780,39 @@
       <c r="U7" s="4">
         <v>78765.467128999997</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="4"/>
+      <c r="W7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="X7" s="6" t="s">
         <v>1476</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1997</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>650</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>717</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>716</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>1487</v>
       </c>
-      <c r="AH7" s="36">
+      <c r="AI7" s="36">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="AS7" s="36">
+      <c r="AT7" s="36">
         <v>6.83E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6837,29 +6850,30 @@
       <c r="U8" s="4">
         <v>97069.812583000006</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="4"/>
+      <c r="W8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="X8" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="Y8" s="8" t="s">
         <v>1478</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1998</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>573</v>
       </c>
-      <c r="AP8" s="9">
+      <c r="AQ8" s="9">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AQ8" s="9">
+      <c r="AR8" s="9">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6909,29 +6923,30 @@
       <c r="U9" s="4">
         <v>66072.250547999996</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="4"/>
+      <c r="W9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="W9" s="6" t="s">
+      <c r="X9" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="Y9" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1978</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>310</v>
       </c>
-      <c r="AV9" s="9">
+      <c r="AW9" s="9">
         <v>0.38</v>
       </c>
-      <c r="BA9" s="9">
+      <c r="BB9" s="9">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6981,20 +6996,21 @@
       <c r="U10" s="4">
         <v>585859.71247499995</v>
       </c>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="4"/>
+      <c r="W10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="W10" s="6" t="s">
+      <c r="X10" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="X10" s="8" t="s">
+      <c r="Y10" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7023,17 +7039,18 @@
       <c r="U11" s="4">
         <v>86210.652000000002</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="4"/>
+      <c r="W11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="W11" s="6" t="s">
+      <c r="X11" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7074,39 +7091,40 @@
       <c r="U12" s="4">
         <v>44417.954493999998</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="4"/>
+      <c r="W12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="X12" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="X12" s="8" t="s">
+      <c r="Y12" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2001</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2100</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AI12" s="9">
         <v>0.12</v>
       </c>
-      <c r="AP12" s="9">
+      <c r="AQ12" s="9">
         <v>0.15</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AR12" s="9">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AV12" s="9">
+      <c r="AW12" s="9">
         <v>0.20230000000000001</v>
       </c>
-      <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
       <c r="AY12" s="9"/>
       <c r="AZ12" s="9"/>
-    </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="BA12" s="9"/>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7150,42 +7168,43 @@
       <c r="U13" s="4">
         <v>112346.596622</v>
       </c>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="4"/>
+      <c r="W13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="W13" s="6" t="s">
+      <c r="X13" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="Y13" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2500</v>
       </c>
-      <c r="AH13" s="9">
+      <c r="AI13" s="9">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="AJ13" s="9">
+      <c r="AK13" s="9">
         <v>0.185</v>
       </c>
-      <c r="AP13" s="9">
+      <c r="AQ13" s="9">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AQ13" s="9">
+      <c r="AR13" s="9">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
-      <c r="AX13" s="9">
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="AY13" s="9"/>
       <c r="AZ13" s="9"/>
-      <c r="BP13" t="s">
+      <c r="BA13" s="9"/>
+      <c r="BQ13" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7215,52 +7234,55 @@
       <c r="U14" s="4">
         <v>43372.530343999999</v>
       </c>
-      <c r="V14" s="6" t="s">
+      <c r="V14" s="4">
+        <v>50706.910930999999</v>
+      </c>
+      <c r="W14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="X14" s="6" t="s">
         <v>1546</v>
       </c>
-      <c r="X14" s="8" t="s">
+      <c r="Y14" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>82</v>
       </c>
-      <c r="AG14" s="9">
+      <c r="AH14" s="9">
         <v>0.15</v>
       </c>
-      <c r="AH14" s="9">
+      <c r="AI14" s="9">
         <v>0.33</v>
       </c>
-      <c r="AI14" s="9">
+      <c r="AJ14" s="9">
         <v>-0.18</v>
       </c>
-      <c r="AJ14" s="9"/>
-      <c r="AO14" s="9">
+      <c r="AK14" s="9"/>
+      <c r="AP14" s="9">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AP14" s="9">
+      <c r="AQ14" s="9">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AQ14" s="9">
+      <c r="AR14" s="9">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="AR14" s="9">
+      <c r="AS14" s="9">
         <v>0.47220000000000001</v>
       </c>
-      <c r="AS14" s="9">
+      <c r="AT14" s="9">
         <v>0.29520000000000002</v>
       </c>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9">
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9">
         <v>-0.43</v>
       </c>
-      <c r="AX14" s="9"/>
       <c r="AY14" s="9"/>
       <c r="AZ14" s="9"/>
-    </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="BA14" s="9"/>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7298,33 +7320,34 @@
       <c r="U15" s="4">
         <v>60484.646629000003</v>
       </c>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="4"/>
+      <c r="W15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W15" s="6" t="s">
+      <c r="X15" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="X15" s="8" t="s">
+      <c r="Y15" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1900</v>
       </c>
-      <c r="AJ15" s="9">
+      <c r="AK15" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AR15" s="9"/>
-      <c r="AV15" s="9">
+      <c r="AS15" s="9"/>
+      <c r="AW15" s="9">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="AW15" s="9">
+      <c r="AX15" s="9">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
       <c r="AZ15" s="9"/>
-    </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="BA15" s="9"/>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7347,27 +7370,28 @@
       <c r="U16" s="4">
         <v>39439.645215999997</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="4"/>
+      <c r="W16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="X16" s="6" t="s">
         <v>1559</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1787</v>
       </c>
-      <c r="AR16" s="10" t="s">
+      <c r="AS16" s="10" t="s">
         <v>1496</v>
       </c>
-      <c r="AV16" s="9"/>
-      <c r="AW16" s="9" t="s">
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="AX16" s="9"/>
       <c r="AY16" s="9"/>
       <c r="AZ16" s="9"/>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BA16" s="9"/>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7414,50 +7438,51 @@
       <c r="U17" s="4">
         <v>43803.735395999996</v>
       </c>
-      <c r="V17" s="6" t="s">
+      <c r="V17" s="4"/>
+      <c r="W17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="X17" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="X17" s="8" t="s">
+      <c r="Y17" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1992</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2800</v>
       </c>
-      <c r="AG17" s="9">
+      <c r="AH17" s="9">
         <v>0.19</v>
       </c>
-      <c r="AH17" s="9">
+      <c r="AI17" s="9">
         <v>0.106</v>
       </c>
-      <c r="AI17" s="9">
+      <c r="AJ17" s="9">
         <v>0.1</v>
       </c>
-      <c r="AJ17" s="9">
+      <c r="AK17" s="9">
         <v>0.09</v>
       </c>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9">
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9">
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9">
         <v>-0.18529999999999999</v>
       </c>
-      <c r="AX17" s="9">
+      <c r="AY17" s="9">
         <v>0.13</v>
       </c>
-      <c r="AY17" s="9">
+      <c r="AZ17" s="9">
         <v>0.34</v>
       </c>
-      <c r="AZ17" s="9"/>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BA17" s="9"/>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7489,23 +7514,24 @@
       <c r="U18" s="4">
         <v>27019.908019999999</v>
       </c>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="4"/>
+      <c r="W18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>119</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>2009</v>
       </c>
-      <c r="AR18" s="9"/>
-      <c r="AV18" s="9"/>
+      <c r="AS18" s="9"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
       <c r="AY18" s="9"/>
       <c r="AZ18" s="9"/>
-    </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BA18" s="9"/>
+    </row>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7555,38 +7581,39 @@
       <c r="U19" s="4">
         <v>31475.977035</v>
       </c>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="4"/>
+      <c r="W19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="W19" s="6" t="s">
+      <c r="X19" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X19" s="8" t="s">
+      <c r="Y19" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>275</v>
       </c>
-      <c r="AH19" s="9">
+      <c r="AI19" s="9">
         <v>0.13800000000000001</v>
       </c>
-      <c r="AI19" s="9">
+      <c r="AJ19" s="9">
         <v>-2.4E-2</v>
       </c>
-      <c r="AR19" s="9">
+      <c r="AS19" s="9">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AV19" s="9">
+      <c r="AW19" s="9">
         <v>0.18890000000000001</v>
       </c>
-      <c r="AW19" s="9">
+      <c r="AX19" s="9">
         <v>0.1</v>
       </c>
-      <c r="AX19" s="9"/>
       <c r="AY19" s="9"/>
       <c r="AZ19" s="9"/>
-    </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BA19" s="9"/>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7648,30 +7675,31 @@
       <c r="U20" s="4">
         <v>22683.837950000001</v>
       </c>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="4"/>
+      <c r="W20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="X20" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X20" s="8" t="s">
+      <c r="Y20" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>157</v>
       </c>
-      <c r="AH20" s="9">
+      <c r="AI20" s="9">
         <v>0.215</v>
       </c>
-      <c r="AP20" s="9">
+      <c r="AQ20" s="9">
         <v>0.111</v>
       </c>
-      <c r="AQ20" s="9">
+      <c r="AR20" s="9">
         <v>-2.4E-2</v>
       </c>
-      <c r="AR20" s="9"/>
-    </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AS20" s="9"/>
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7712,29 +7740,30 @@
       <c r="U21" s="4">
         <v>26593.869223000002</v>
       </c>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="4"/>
+      <c r="W21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="W21" s="6" t="s">
+      <c r="X21" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X21" s="8" t="s">
+      <c r="Y21" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>162</v>
       </c>
-      <c r="AH21" s="9">
+      <c r="AI21" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AI21" s="9">
+      <c r="AJ21" s="9">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="AR21" s="9">
+      <c r="AS21" s="9">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7782,62 +7811,63 @@
       <c r="U22" s="4">
         <v>21554.169615999999</v>
       </c>
-      <c r="V22" s="6" t="s">
+      <c r="V22" s="4"/>
+      <c r="W22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="X22" s="8" t="s">
+      <c r="Y22" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1300</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1975</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>1486</v>
       </c>
-      <c r="AG22" s="9">
+      <c r="AH22" s="9">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AH22" s="9" t="s">
+      <c r="AI22" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="AI22" s="9">
+      <c r="AJ22" s="9">
         <v>0.1</v>
-      </c>
-      <c r="AJ22" s="9">
-        <v>-0.05</v>
       </c>
       <c r="AK22" s="9">
         <v>-0.05</v>
       </c>
       <c r="AL22" s="9">
+        <v>-0.05</v>
+      </c>
+      <c r="AM22" s="9">
         <v>0</v>
       </c>
-      <c r="AM22" s="27">
+      <c r="AN22" s="27">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AP22" t="s">
         <v>1505</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>1503</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>1504</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>1502</v>
       </c>
-      <c r="AW22" s="27">
+      <c r="AX22" s="27">
         <v>9.4E-2</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7863,17 +7893,18 @@
       <c r="U23" s="4">
         <v>21467.172566000001</v>
       </c>
-      <c r="V23" s="6" t="s">
+      <c r="V23" s="4"/>
+      <c r="W23" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W23" s="6" t="s">
+      <c r="X23" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7905,17 +7936,18 @@
       <c r="U24" s="4">
         <v>25100.62847</v>
       </c>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="4"/>
+      <c r="W24" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W24" s="6" t="s">
+      <c r="X24" s="6" t="s">
         <v>1559</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7947,20 +7979,21 @@
       <c r="U25" s="4">
         <v>17935.796589000001</v>
       </c>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="4"/>
+      <c r="W25" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W25" s="6" t="s">
+      <c r="X25" s="6" t="s">
         <v>1560</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>230</v>
       </c>
-      <c r="AX25" s="36">
+      <c r="AY25" s="36">
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7992,17 +8025,18 @@
       <c r="U26" s="4">
         <v>32431.141950000001</v>
       </c>
-      <c r="V26" s="6" t="s">
+      <c r="V26" s="4"/>
+      <c r="W26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>241</v>
       </c>
-      <c r="AJ26" s="9">
+      <c r="AK26" s="9">
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -8031,26 +8065,27 @@
       <c r="U27" s="4">
         <v>347.213639</v>
       </c>
-      <c r="V27" s="6" t="s">
+      <c r="V27" s="4"/>
+      <c r="W27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="W27" s="6" t="s">
+      <c r="X27" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2006</v>
       </c>
-      <c r="AP27" s="9">
+      <c r="AQ27" s="9">
         <v>0.16200000000000001</v>
       </c>
-      <c r="AQ27" s="9">
+      <c r="AR27" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AR27" s="9">
+      <c r="AS27" s="9">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -8097,119 +8132,120 @@
       <c r="U28" s="4">
         <v>11578.130343000001</v>
       </c>
-      <c r="V28" s="6" t="s">
+      <c r="V28" s="4"/>
+      <c r="W28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="W28" s="6" t="s">
+      <c r="X28" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X28" s="8" t="s">
+      <c r="Y28" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1997</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>227</v>
       </c>
-      <c r="AB28" s="9">
+      <c r="AC28" s="9">
         <f>RATE(2022-1998,0,-1,13.71)</f>
         <v>0.11526111596972678</v>
       </c>
-      <c r="AC28" s="9">
-        <f>1*(1+BG$28)*(1+BF28)*(1+BE28)*(1+BD28)*(1+BC28)*(1+BB28)*(1+BA28)*(1+AZ28)*(1+AY28)*(1+AX28)*(1+AW28)*(1+AV28)*(1+AU28)*(1+AT28)*(1+AS28)*(1+AR28)*(1+AQ28)*(1+AP28)*(1+AO28)*(1+AN28)*(1+AM28)*(1+AL28)*(1+AK28)*(1+AJ28)*(1+AI28)-1</f>
+      <c r="AD28" s="9">
+        <f>1*(1+BH$28)*(1+BG28)*(1+BF28)*(1+BE28)*(1+BD28)*(1+BC28)*(1+BB28)*(1+BA28)*(1+AZ28)*(1+AY28)*(1+AX28)*(1+AW28)*(1+AV28)*(1+AU28)*(1+AT28)*(1+AS28)*(1+AR28)*(1+AQ28)*(1+AP28)*(1+AO28)*(1+AN28)*(1+AM28)*(1+AL28)*(1+AK28)*(1+AJ28)-1</f>
         <v>13.713492129281141</v>
       </c>
-      <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="9"/>
-      <c r="AH28" s="9">
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9">
         <v>0.19</v>
       </c>
-      <c r="AI28" s="10">
+      <c r="AJ28" s="10">
         <v>-0.33</v>
       </c>
-      <c r="AJ28" s="9">
+      <c r="AK28" s="9">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="AK28" s="9">
+      <c r="AL28" s="9">
         <v>0.23</v>
       </c>
-      <c r="AL28" s="9">
+      <c r="AM28" s="9">
         <v>0.29899999999999999</v>
       </c>
-      <c r="AM28" s="9">
+      <c r="AN28" s="9">
         <v>-0.05</v>
       </c>
-      <c r="AN28" s="9">
+      <c r="AO28" s="9">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="AO28" s="9">
+      <c r="AP28" s="9">
         <v>-2.7E-2</v>
       </c>
-      <c r="AP28" s="9">
+      <c r="AQ28" s="9">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="AQ28" s="9">
+      <c r="AR28" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AR28" s="9">
+      <c r="AS28" s="9">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AS28" s="9">
+      <c r="AT28" s="9">
         <v>0.193</v>
       </c>
-      <c r="AT28" s="9">
+      <c r="AU28" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AU28" s="9">
+      <c r="AV28" s="9">
         <v>0.126</v>
       </c>
-      <c r="AV28" s="9">
+      <c r="AW28" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AW28" s="9">
+      <c r="AX28" s="9">
         <v>-0.32900000000000001</v>
       </c>
-      <c r="AX28" s="9">
+      <c r="AY28" s="9">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AY28" s="9">
+      <c r="AZ28" s="9">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AZ28" s="9">
+      <c r="BA28" s="9">
         <v>0.25900000000000001</v>
       </c>
-      <c r="BA28" s="9">
+      <c r="BB28" s="9">
         <v>0.14599999999999999</v>
       </c>
-      <c r="BB28" s="9">
+      <c r="BC28" s="9">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="BC28" s="9">
+      <c r="BD28" s="9">
         <v>0.14599999999999999</v>
       </c>
-      <c r="BD28" s="9">
+      <c r="BE28" s="9">
         <v>0.40400000000000003</v>
       </c>
-      <c r="BE28" s="9">
+      <c r="BF28" s="9">
         <v>0.73399999999999999</v>
       </c>
-      <c r="BF28" s="9">
+      <c r="BG28" s="9">
         <v>0.46800000000000003</v>
       </c>
-      <c r="BG28" s="9">
+      <c r="BH28" s="9">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="BH28" s="9"/>
       <c r="BI28" s="9"/>
       <c r="BJ28" s="9"/>
       <c r="BK28" s="9"/>
       <c r="BL28" s="9"/>
       <c r="BM28" s="9"/>
-    </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN28" s="9"/>
+    </row>
+    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8241,16 +8277,17 @@
       <c r="U29" s="4">
         <v>15376.793691999999</v>
       </c>
-      <c r="V29" s="6" t="s">
+      <c r="V29" s="4"/>
+      <c r="W29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W29" s="6" t="s">
+      <c r="X29" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AW29" s="9"/>
       <c r="AX29" s="9"/>
-    </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AY29" s="9"/>
+    </row>
+    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -8285,27 +8322,28 @@
       <c r="U30" s="4">
         <v>11930.893007999999</v>
       </c>
-      <c r="V30" s="6" t="s">
+      <c r="V30" s="4"/>
+      <c r="W30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>1562</v>
       </c>
-      <c r="AH30" s="9">
+      <c r="AI30" s="9">
         <v>0.26300000000000001</v>
       </c>
-      <c r="AI30" s="9">
+      <c r="AJ30" s="9">
         <v>-8.7999999999999995E-2</v>
       </c>
-      <c r="AV30" s="9">
+      <c r="AW30" s="9">
         <v>0.41210000000000002</v>
       </c>
-      <c r="AW30" s="9">
+      <c r="AX30" s="9">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="AX30" s="9"/>
-    </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AY30" s="9"/>
+    </row>
+    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -8340,36 +8378,37 @@
       <c r="U31" s="4">
         <v>15156.102965</v>
       </c>
-      <c r="V31" s="6" t="s">
+      <c r="V31" s="4"/>
+      <c r="W31" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W31" s="6" t="s">
+      <c r="X31" s="6" t="s">
         <v>1305</v>
       </c>
-      <c r="X31" s="8" t="s">
+      <c r="Y31" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1977</v>
       </c>
-      <c r="AH31" s="9">
+      <c r="AI31" s="9">
         <v>4.7E-2</v>
       </c>
-      <c r="AO31" s="9">
+      <c r="AP31" s="9">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AP31" s="9">
+      <c r="AQ31" s="9">
         <v>2.7E-2</v>
       </c>
-      <c r="AV31" s="9">
+      <c r="AW31" s="9">
         <v>0.307</v>
       </c>
-      <c r="AW31" s="9">
+      <c r="AX31" s="9">
         <v>-0.03</v>
       </c>
-      <c r="AX31" s="9"/>
-    </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AY31" s="9"/>
+    </row>
+    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8401,20 +8440,21 @@
       <c r="U32" s="4">
         <v>10.111667000000001</v>
       </c>
-      <c r="V32" s="6" t="s">
+      <c r="V32" s="4"/>
+      <c r="W32" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W32" s="6" t="s">
+      <c r="X32" s="6" t="s">
         <v>1559</v>
       </c>
-      <c r="AJ32" s="9">
+      <c r="AK32" s="9">
         <v>5.5E-2</v>
       </c>
-      <c r="AV32" s="9"/>
       <c r="AW32" s="9"/>
       <c r="AX32" s="9"/>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY32" s="9"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -8446,14 +8486,15 @@
       <c r="U33" s="4">
         <v>30095.626647000001</v>
       </c>
-      <c r="V33" s="6" t="s">
+      <c r="V33" s="4"/>
+      <c r="W33" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AV33" s="9"/>
       <c r="AW33" s="9"/>
       <c r="AX33" s="9"/>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY33" s="9"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -8491,23 +8532,24 @@
       <c r="U34" s="4">
         <v>9036.702464</v>
       </c>
-      <c r="V34" s="6" t="s">
+      <c r="V34" s="4"/>
+      <c r="W34" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="W34" s="6" t="s">
+      <c r="X34" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="X34" s="8" t="s">
+      <c r="Y34" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>2000</v>
       </c>
-      <c r="AV34" s="9"/>
       <c r="AW34" s="9"/>
       <c r="AX34" s="9"/>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY34" s="9"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -8539,21 +8581,22 @@
       <c r="U35" s="4">
         <v>4971.0965189999997</v>
       </c>
-      <c r="V35" s="6" t="s">
+      <c r="V35" s="4"/>
+      <c r="W35" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="W35" s="6" t="s">
+      <c r="X35" s="6" t="s">
         <v>1564</v>
       </c>
-      <c r="X35" s="8" t="s">
+      <c r="Y35" s="8" t="s">
         <v>1206</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>2008</v>
       </c>
-      <c r="AV35" s="9"/>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AW35" s="9"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -8576,15 +8619,16 @@
       <c r="U36" s="4">
         <v>11911.767229999999</v>
       </c>
-      <c r="V36" s="6" t="s">
+      <c r="V36" s="4"/>
+      <c r="W36" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="X36" s="8" t="s">
+      <c r="Y36" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="AV36" s="9"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AW36" s="9"/>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -8616,20 +8660,21 @@
       <c r="U37" s="4">
         <v>6704.9046639999997</v>
       </c>
-      <c r="V37" s="6" t="s">
+      <c r="V37" s="4"/>
+      <c r="W37" s="6" t="s">
         <v>1566</v>
       </c>
-      <c r="W37" s="6" t="s">
+      <c r="X37" s="6" t="s">
         <v>1565</v>
       </c>
-      <c r="AV37" s="9">
+      <c r="AW37" s="9">
         <v>0.29020000000000001</v>
       </c>
-      <c r="AW37" s="9">
+      <c r="AX37" s="9">
         <v>0.08</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -8656,17 +8701,18 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="6" t="s">
+      <c r="V38" s="4"/>
+      <c r="W38" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="W38" s="6" t="s">
+      <c r="X38" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="X38" s="8" t="s">
+      <c r="Y38" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -8689,17 +8735,18 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="6" t="s">
+      <c r="V39" s="4"/>
+      <c r="W39" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="W39" s="6" t="s">
+      <c r="X39" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="X39" s="8" t="s">
+      <c r="Y39" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -8719,8 +8766,9 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="V40" s="4"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -8740,8 +8788,9 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="V41" s="4"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -8767,23 +8816,24 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="6" t="s">
+      <c r="V42" s="4"/>
+      <c r="W42" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="W42" s="6" t="s">
+      <c r="X42" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="X42" s="8" t="s">
+      <c r="Y42" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="AR42" s="36">
+      <c r="AS42" s="36">
         <v>0.2525</v>
       </c>
-      <c r="AS42" s="36">
+      <c r="AT42" s="36">
         <v>0.215</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -8809,14 +8859,15 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="6" t="s">
+      <c r="V43" s="4"/>
+      <c r="W43" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="X43" s="8" t="s">
+      <c r="Y43" s="8" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -8833,14 +8884,15 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="Y44">
+      <c r="V44" s="4"/>
+      <c r="Z44">
         <v>2007</v>
       </c>
-      <c r="AH44" s="9">
+      <c r="AI44" s="9">
         <v>0.254</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8866,17 +8918,18 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="6" t="s">
+      <c r="V45" s="4"/>
+      <c r="W45" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="W45" s="6" t="s">
+      <c r="X45" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="X45" s="8" t="s">
+      <c r="Y45" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8896,11 +8949,12 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
-      <c r="V46" s="6" t="s">
+      <c r="V46" s="4"/>
+      <c r="W46" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8914,8 +8968,9 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="V47" s="4"/>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8929,8 +8984,9 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="V48" s="4"/>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -8953,22 +9009,23 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9">
+      <c r="V49" s="4"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9">
         <v>0.18</v>
       </c>
-      <c r="AP49" s="9">
+      <c r="AQ49" s="9">
         <v>0.11</v>
       </c>
-      <c r="AQ49" s="9">
+      <c r="AR49" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AR49" s="9"/>
-      <c r="AS49" s="9">
+      <c r="AS49" s="9"/>
+      <c r="AT49" s="9">
         <v>0.29270000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -8988,8 +9045,9 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="V50" s="4"/>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -9009,8 +9067,9 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="V51" s="4"/>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -9027,11 +9086,12 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="6" t="s">
+      <c r="V52" s="4"/>
+      <c r="W52" s="6" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -9054,11 +9114,12 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="6" t="s">
+      <c r="V53" s="4"/>
+      <c r="W53" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -9084,14 +9145,15 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="6" t="s">
+      <c r="V54" s="4"/>
+      <c r="W54" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="W54" s="6" t="s">
+      <c r="X54" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -9117,14 +9179,15 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="6" t="s">
+      <c r="V55" s="4"/>
+      <c r="W55" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="W55" s="6" t="s">
+      <c r="X55" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -9153,14 +9216,15 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="6" t="s">
+      <c r="V56" s="4"/>
+      <c r="W56" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="W56" s="6" t="s">
+      <c r="X56" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -9180,8 +9244,9 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="V57" s="4"/>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -9198,17 +9263,18 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="AH58" s="36">
+      <c r="V58" s="4"/>
+      <c r="AI58" s="36">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AR58" s="9">
+      <c r="AS58" s="9">
         <v>1.0174000000000001</v>
       </c>
-      <c r="AS58" s="9">
+      <c r="AT58" s="9">
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -9234,11 +9300,12 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="6" t="s">
+      <c r="V59" s="4"/>
+      <c r="W59" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60">
         <f>+A63+1</f>
         <v>61</v>
@@ -9258,8 +9325,9 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="V60" s="4"/>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61">
         <f>+A59+1</f>
         <v>58</v>
@@ -9273,8 +9341,9 @@
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="V61" s="4"/>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -9297,8 +9366,9 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="V62" s="4"/>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -9321,14 +9391,15 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="6" t="s">
+      <c r="V63" s="4"/>
+      <c r="W63" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W63" s="6" t="s">
+      <c r="X63" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>+A60+1</f>
         <v>62</v>
@@ -9354,29 +9425,30 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="6" t="s">
+      <c r="V64" s="4"/>
+      <c r="W64" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="W64" s="6" t="s">
+      <c r="X64" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AH64" s="9">
+      <c r="AI64" s="9">
         <v>0.26</v>
       </c>
-      <c r="AI64" s="9">
+      <c r="AJ64" s="9">
         <v>-0.26</v>
       </c>
-      <c r="AJ64" s="9">
+      <c r="AK64" s="9">
         <v>-0.21</v>
       </c>
-      <c r="AP64" s="9">
+      <c r="AQ64" s="9">
         <v>0.51800000000000002</v>
       </c>
-      <c r="AQ64" s="9">
+      <c r="AR64" s="9">
         <v>0.189</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -9396,8 +9468,9 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-    </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V65" s="4"/>
+    </row>
+    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -9420,11 +9493,12 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
-      <c r="V66" s="6" t="s">
+      <c r="V66" s="4"/>
+      <c r="W66" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -9444,11 +9518,12 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="6" t="s">
+      <c r="V67" s="4"/>
+      <c r="W67" s="6" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -9471,14 +9546,15 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="6" t="s">
+      <c r="V68" s="4"/>
+      <c r="W68" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AH68" s="36">
+      <c r="AI68" s="36">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -9492,8 +9568,9 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-    </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V69" s="4"/>
+    </row>
+    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -9505,8 +9582,9 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-    </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V70" s="4"/>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -9521,8 +9599,9 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-    </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V71" s="4"/>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -9542,11 +9621,12 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="6" t="s">
+      <c r="V72" s="4"/>
+      <c r="W72" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -9563,8 +9643,9 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-    </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V73" s="4"/>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -9587,11 +9668,12 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="6" t="s">
+      <c r="V74" s="4"/>
+      <c r="W74" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -9614,8 +9696,9 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-    </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V75" s="4"/>
+    </row>
+    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -9638,11 +9721,12 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="6" t="s">
+      <c r="V76" s="4"/>
+      <c r="W76" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -9656,8 +9740,9 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
-    </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V77" s="4"/>
+    </row>
+    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -9671,8 +9756,9 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-    </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V78" s="4"/>
+    </row>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -9689,11 +9775,12 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="Y79">
+      <c r="V79" s="4"/>
+      <c r="Z79">
         <v>2011</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -9717,20 +9804,21 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="6" t="s">
+      <c r="V80" s="4"/>
+      <c r="W80" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="W80" s="6" t="s">
+      <c r="X80" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AP80" s="9">
+      <c r="AQ80" s="9">
         <v>-0.2</v>
       </c>
-      <c r="AW80" s="9">
+      <c r="AX80" s="9">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -9750,11 +9838,12 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="6" t="s">
+      <c r="V81" s="4"/>
+      <c r="W81" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -9768,8 +9857,9 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-    </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V82" s="4"/>
+    </row>
+    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -9783,8 +9873,9 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-    </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V83" s="4"/>
+    </row>
+    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -9804,8 +9895,9 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-    </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V84" s="4"/>
+    </row>
+    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" ref="A85:A120" si="2">+A84+1</f>
         <v>83</v>
@@ -9825,8 +9917,9 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
-    </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V85" s="4"/>
+    </row>
+    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -9849,11 +9942,12 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-      <c r="V86" s="6" t="s">
+      <c r="V86" s="4"/>
+      <c r="W86" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -9873,11 +9967,12 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-      <c r="X87" s="8" t="s">
+      <c r="V87" s="4"/>
+      <c r="Y87" s="8" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -9903,14 +9998,15 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="6" t="s">
+      <c r="V88" s="4"/>
+      <c r="W88" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="W88" s="6" t="s">
+      <c r="X88" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -9933,11 +10029,12 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="6" t="s">
+      <c r="V89" s="4"/>
+      <c r="W89" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -9951,8 +10048,9 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-    </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V90" s="4"/>
+    </row>
+    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -9975,11 +10073,12 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="6" t="s">
+      <c r="V91" s="4"/>
+      <c r="W91" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -9999,8 +10098,9 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-    </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V92" s="4"/>
+    </row>
+    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -10014,8 +10114,9 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-    </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="V93" s="4"/>
+    </row>
+    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -10032,17 +10133,18 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-      <c r="AG94" s="9">
+      <c r="V94" s="4"/>
+      <c r="AH94" s="9">
         <v>0.52</v>
       </c>
-      <c r="AH94" s="9">
+      <c r="AI94" s="9">
         <v>0.48</v>
       </c>
-      <c r="AW94" s="36">
+      <c r="AX94" s="36">
         <v>-0.33300000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -10065,11 +10167,12 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="6" t="s">
+      <c r="V95" s="4"/>
+      <c r="W95" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -10083,8 +10186,9 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V96" s="4"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -10104,8 +10208,9 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V97" s="4"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -10126,8 +10231,9 @@
       <c r="U98" s="4">
         <v>199.22499999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V98" s="4"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -10143,8 +10249,9 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V99" s="4"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -10160,11 +10267,12 @@
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
-      <c r="V100" s="6" t="s">
+      <c r="V100" s="4"/>
+      <c r="W100" s="6" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -10186,17 +10294,18 @@
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
-      <c r="V101" s="6" t="s">
+      <c r="V101" s="4"/>
+      <c r="W101" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="W101" s="6" t="s">
+      <c r="X101" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X101" s="8" t="s">
+      <c r="Y101" s="8" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -10212,8 +10321,9 @@
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V102" s="4"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -10221,11 +10331,11 @@
       <c r="B103" t="s">
         <v>61</v>
       </c>
-      <c r="V103" s="6" t="s">
+      <c r="W103" s="6" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -10234,7 +10344,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -10243,7 +10353,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -10252,7 +10362,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -10264,7 +10374,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -10273,7 +10383,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109">
         <f>+A107+1</f>
         <v>106</v>
@@ -10282,7 +10392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -10291,7 +10401,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -10300,7 +10410,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -11035,7 +11145,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193">
         <f t="shared" si="4"/>
         <v>189</v>
@@ -11044,7 +11154,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="4"/>
         <v>190</v>
@@ -11053,7 +11163,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" si="4"/>
         <v>191</v>
@@ -11062,7 +11172,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" si="4"/>
         <v>192</v>
@@ -11071,7 +11181,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" si="4"/>
         <v>193</v>
@@ -11083,7 +11193,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" si="4"/>
         <v>194</v>
@@ -11092,7 +11202,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="4"/>
         <v>195</v>
@@ -11101,7 +11211,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" si="4"/>
         <v>196</v>
@@ -11110,7 +11220,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201">
         <f t="shared" si="4"/>
         <v>197</v>
@@ -11119,7 +11229,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202">
         <f t="shared" si="4"/>
         <v>198</v>
@@ -11128,7 +11238,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203">
         <f t="shared" si="4"/>
         <v>199</v>
@@ -11137,7 +11247,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="206" spans="1:24" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="22" t="s">
         <v>1211</v>
       </c>
@@ -11159,11 +11269,12 @@
       <c r="S206" s="23"/>
       <c r="T206" s="23"/>
       <c r="U206" s="23"/>
-      <c r="V206" s="25"/>
+      <c r="V206" s="23"/>
       <c r="W206" s="25"/>
-      <c r="X206" s="26"/>
-    </row>
-    <row r="207" spans="1:24" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X206" s="25"/>
+      <c r="Y206" s="26"/>
+    </row>
+    <row r="207" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="22" t="s">
         <v>62</v>
       </c>
@@ -11185,13 +11296,14 @@
       <c r="S207" s="23"/>
       <c r="T207" s="23"/>
       <c r="U207" s="23"/>
-      <c r="V207" s="25" t="s">
+      <c r="V207" s="23"/>
+      <c r="W207" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="W207" s="25"/>
-      <c r="X207" s="26"/>
-    </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X207" s="25"/>
+      <c r="Y207" s="26"/>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B208" s="22" t="s">
         <v>1269</v>
       </c>
@@ -11916,10 +12028,12 @@
     <hyperlink ref="U37" r:id="rId543" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266425002391/0000902664-25-002391-index.htm" xr:uid="{6CAD3196-454F-49A9-BBEB-1381C8131A3B}"/>
     <hyperlink ref="T37" r:id="rId544" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266425001069/0000902664-25-001069-index.htm" xr:uid="{5877A737-4BF1-4499-B31C-2B6F9BA4C613}"/>
     <hyperlink ref="S37" r:id="rId545" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266424006588/0000902664-24-006588-index.htm" xr:uid="{F2D3BA4D-4132-4106-9768-DD888739BF51}"/>
+    <hyperlink ref="V14" r:id="rId546" display="https://www.sec.gov/Archives/edgar/data/1647251/000164725125000009/0001647251-25-000009-index.htm" xr:uid="{E40C5361-5000-4A4A-8C1A-4A37C72706F8}"/>
+    <hyperlink ref="V4" r:id="rId547" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308725000028/0001273087-25-000028-index.htm" xr:uid="{FC18955F-18F5-45A1-AA8A-7BAA23166151}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId546"/>
-  <legacyDrawing r:id="rId547"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId548"/>
+  <legacyDrawing r:id="rId549"/>
 </worksheet>
 </file>
 

--- a/Hedge Funds (1).xlsx
+++ b/Hedge Funds (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A368EBB2-8F37-4371-8D97-A2E96F9C54DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0934CC16-46ED-4067-B223-13D37A23695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedge" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="1568">
   <si>
     <t>Name</t>
   </si>
@@ -6101,7 +6101,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6389,7 +6389,9 @@
       <c r="U3" s="4">
         <v>258701.144516</v>
       </c>
-      <c r="V3" s="4"/>
+      <c r="V3" s="4">
+        <v>257521.77692500001</v>
+      </c>
       <c r="W3" s="6" t="s">
         <v>99</v>
       </c>
@@ -6592,7 +6594,9 @@
       <c r="U5" s="4">
         <v>527316.42162100004</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="V5" s="4">
+        <v>575955.91866600001</v>
+      </c>
       <c r="W5" s="6" t="s">
         <v>98</v>
       </c>
@@ -6731,7 +6735,9 @@
       <c r="U6" s="4">
         <v>399265.21921299997</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="V6" s="4">
+        <v>505635.20840800001</v>
+      </c>
       <c r="W6" s="6" t="s">
         <v>100</v>
       </c>
@@ -6780,7 +6786,9 @@
       <c r="U7" s="4">
         <v>78765.467128999997</v>
       </c>
-      <c r="V7" s="4"/>
+      <c r="V7" s="4">
+        <v>88778.648031000004</v>
+      </c>
       <c r="W7" s="6" t="s">
         <v>98</v>
       </c>
@@ -6850,7 +6858,9 @@
       <c r="U8" s="4">
         <v>97069.812583000006</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="4">
+        <v>120883.773328</v>
+      </c>
       <c r="W8" s="6" t="s">
         <v>100</v>
       </c>
@@ -6923,7 +6933,9 @@
       <c r="U9" s="4">
         <v>66072.250547999996</v>
       </c>
-      <c r="V9" s="4"/>
+      <c r="V9" s="4">
+        <v>75171.481593000004</v>
+      </c>
       <c r="W9" s="6" t="s">
         <v>100</v>
       </c>
@@ -6996,7 +7008,9 @@
       <c r="U10" s="4">
         <v>585859.71247499995</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="4">
+        <v>719810.28665300005</v>
+      </c>
       <c r="W10" s="6" t="s">
         <v>100</v>
       </c>
@@ -7039,7 +7053,9 @@
       <c r="U11" s="4">
         <v>86210.652000000002</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="V11" s="4">
+        <v>98415.069591000007</v>
+      </c>
       <c r="W11" s="6" t="s">
         <v>100</v>
       </c>
@@ -7091,7 +7107,9 @@
       <c r="U12" s="4">
         <v>44417.954493999998</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="V12" s="4">
+        <v>48800.428701999997</v>
+      </c>
       <c r="W12" s="6" t="s">
         <v>100</v>
       </c>
@@ -7168,7 +7186,9 @@
       <c r="U13" s="4">
         <v>112346.596622</v>
       </c>
-      <c r="V13" s="4"/>
+      <c r="V13" s="4">
+        <v>141059.27600700001</v>
+      </c>
       <c r="W13" s="6" t="s">
         <v>100</v>
       </c>
@@ -7320,7 +7340,9 @@
       <c r="U15" s="4">
         <v>60484.646629000003</v>
       </c>
-      <c r="V15" s="4"/>
+      <c r="V15" s="4">
+        <v>66411.788618999999</v>
+      </c>
       <c r="W15" s="6" t="s">
         <v>98</v>
       </c>
@@ -7370,7 +7392,9 @@
       <c r="U16" s="4">
         <v>39439.645215999997</v>
       </c>
-      <c r="V16" s="4"/>
+      <c r="V16" s="4">
+        <v>52494.564572000003</v>
+      </c>
       <c r="W16" s="6" t="s">
         <v>98</v>
       </c>
@@ -10231,7 +10255,12 @@
       <c r="U98" s="4">
         <v>199.22499999999999</v>
       </c>
-      <c r="V98" s="4"/>
+      <c r="V98" s="4">
+        <v>578.33704</v>
+      </c>
+      <c r="W98" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -12030,10 +12059,23 @@
     <hyperlink ref="S37" r:id="rId545" display="https://www.sec.gov/Archives/edgar/data/1029160/000090266424006588/0000902664-24-006588-index.htm" xr:uid="{F2D3BA4D-4132-4106-9768-DD888739BF51}"/>
     <hyperlink ref="V14" r:id="rId546" display="https://www.sec.gov/Archives/edgar/data/1647251/000164725125000009/0001647251-25-000009-index.htm" xr:uid="{E40C5361-5000-4A4A-8C1A-4A37C72706F8}"/>
     <hyperlink ref="V4" r:id="rId547" display="https://www.sec.gov/Archives/edgar/data/1273087/000127308725000028/0001273087-25-000028-index.htm" xr:uid="{FC18955F-18F5-45A1-AA8A-7BAA23166151}"/>
+    <hyperlink ref="V3" r:id="rId548" display="https://www.sec.gov/Archives/edgar/data/1067983/000095012325008343/xslForm13F_X02/primary_doc.xml" xr:uid="{9293D2E1-51D7-4F94-BF01-C8C94F90173E}"/>
+    <hyperlink ref="V5" r:id="rId549" display="https://www.sec.gov/Archives/edgar/data/1423053/000110465925078555/0001104659-25-078555-index.htm" xr:uid="{BCA4F770-09AC-4168-A7FD-77F17F683FBE}"/>
+    <hyperlink ref="V6" r:id="rId550" display="https://www.sec.gov/Archives/edgar/data/1595888/000159588825000117/0001595888-25-000117-index.htm" xr:uid="{8548E86D-4F1B-4002-9137-604164C88474}"/>
+    <hyperlink ref="V7" r:id="rId551" display="https://www.sec.gov/Archives/edgar/data/1318757/000131875725000034/0001318757-25-000034-index.htm" xr:uid="{15026B80-1368-4F63-AE59-21CCB1E05209}"/>
+    <hyperlink ref="V8" r:id="rId552" display="https://www.sec.gov/Archives/edgar/data/1167557/000108514625005295/0001085146-25-005295-index.htm" xr:uid="{7C18EF18-8558-49C1-AB9B-D4F668D990E4}"/>
+    <hyperlink ref="V9" r:id="rId553" display="https://www.sec.gov/Archives/edgar/data/1037389/000103738925000034/0001037389-25-000034-index.htm" xr:uid="{0BCF628B-EE32-4DBB-B967-6223AC0289CD}"/>
+    <hyperlink ref="V10" r:id="rId554" display="https://www.sec.gov/Archives/edgar/data/1446194/000144619425000024/0001446194-25-000024-index.htm" xr:uid="{1EAC119F-570E-4C62-81B1-932D29C87934}"/>
+    <hyperlink ref="V11" r:id="rId555" display="https://www.sec.gov/Archives/edgar/data/1729829/000172982925000050/0001729829-25-000050-index.htm" xr:uid="{C3BD15A9-5229-4F4C-A355-005643E34051}"/>
+    <hyperlink ref="V12" r:id="rId556" display="https://www.sec.gov/Archives/edgar/data/1478735/000089914025000953/0000899140-25-000953-index.htm" xr:uid="{980F81E4-D744-41D8-8859-3571DB676918}"/>
+    <hyperlink ref="V13" r:id="rId557" display="https://www.sec.gov/Archives/edgar/data/1009207/000110465925078542/0001104659-25-078542-index.htm" xr:uid="{090D12A3-F95D-4F8E-8009-FDD6338D45F1}"/>
+    <hyperlink ref="V15" r:id="rId558" display="https://www.sec.gov/Archives/edgar/data/1218710/000095012325008224/0000950123-25-008224-index.htm" xr:uid="{A0BC13A8-B069-4256-9702-0CCE7F541DE9}"/>
+    <hyperlink ref="V98" r:id="rId559" display="https://www.sec.gov/Archives/edgar/data/1649339/000187920225000038/0001879202-25-000038-index.htm" xr:uid="{ECDF00EA-5869-4C6F-85FA-643E55306B38}"/>
+    <hyperlink ref="V16" r:id="rId560" display="https://www.sec.gov/Archives/edgar/data/1649339/000187920225000038/0001879202-25-000038-index.htm" xr:uid="{AFB35F17-3F68-474E-81ED-E1F09AA0E84C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId548"/>
-  <legacyDrawing r:id="rId549"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId561"/>
+  <legacyDrawing r:id="rId562"/>
 </worksheet>
 </file>
 

--- a/Hedge Funds (1).xlsx
+++ b/Hedge Funds (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0934CC16-46ED-4067-B223-13D37A23695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C0EAC-08A8-4856-BF62-E99B86F764C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{18689D26-F1F3-46B4-82BE-041D095397EB}"/>
   </bookViews>
@@ -6101,7 +6101,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7462,7 +7462,9 @@
       <c r="U17" s="4">
         <v>43803.735395999996</v>
       </c>
-      <c r="V17" s="4"/>
+      <c r="V17" s="4">
+        <v>50941.421372999997</v>
+      </c>
       <c r="W17" s="6" t="s">
         <v>98</v>
       </c>
@@ -7538,7 +7540,9 @@
       <c r="U18" s="4">
         <v>27019.908019999999</v>
       </c>
-      <c r="V18" s="4"/>
+      <c r="V18" s="4">
+        <v>27139.356501999999</v>
+      </c>
       <c r="W18" s="6" t="s">
         <v>100</v>
       </c>
@@ -7605,7 +7609,9 @@
       <c r="U19" s="4">
         <v>31475.977035</v>
       </c>
-      <c r="V19" s="4"/>
+      <c r="V19" s="4">
+        <v>34589.864589999997</v>
+      </c>
       <c r="W19" s="6" t="s">
         <v>101</v>
       </c>
@@ -7699,7 +7705,9 @@
       <c r="U20" s="4">
         <v>22683.837950000001</v>
       </c>
-      <c r="V20" s="4"/>
+      <c r="V20" s="4">
+        <v>35899.628173999998</v>
+      </c>
       <c r="W20" s="6" t="s">
         <v>104</v>
       </c>
@@ -7764,7 +7772,9 @@
       <c r="U21" s="4">
         <v>26593.869223000002</v>
       </c>
-      <c r="V21" s="4"/>
+      <c r="V21" s="4">
+        <v>34081.542845000004</v>
+      </c>
       <c r="W21" s="6" t="s">
         <v>104</v>
       </c>
@@ -7835,7 +7845,9 @@
       <c r="U22" s="4">
         <v>21554.169615999999</v>
       </c>
-      <c r="V22" s="4"/>
+      <c r="V22" s="4">
+        <v>24791.713463</v>
+      </c>
       <c r="W22" s="6" t="s">
         <v>102</v>
       </c>
@@ -7917,7 +7929,9 @@
       <c r="U23" s="4">
         <v>21467.172566000001</v>
       </c>
-      <c r="V23" s="4"/>
+      <c r="V23" s="4">
+        <v>22465.170517999999</v>
+      </c>
       <c r="W23" s="6" t="s">
         <v>98</v>
       </c>
@@ -7960,7 +7974,9 @@
       <c r="U24" s="4">
         <v>25100.62847</v>
       </c>
-      <c r="V24" s="4"/>
+      <c r="V24" s="4">
+        <v>28384.872542000001</v>
+      </c>
       <c r="W24" s="6" t="s">
         <v>98</v>
       </c>
@@ -8003,7 +8019,9 @@
       <c r="U25" s="4">
         <v>17935.796589000001</v>
       </c>
-      <c r="V25" s="4"/>
+      <c r="V25" s="4">
+        <v>23178.205569999998</v>
+      </c>
       <c r="W25" s="6" t="s">
         <v>98</v>
       </c>
@@ -8049,7 +8067,9 @@
       <c r="U26" s="4">
         <v>32431.141950000001</v>
       </c>
-      <c r="V26" s="4"/>
+      <c r="V26" s="4">
+        <v>29446.119595</v>
+      </c>
       <c r="W26" s="6" t="s">
         <v>100</v>
       </c>
@@ -8089,7 +8109,9 @@
       <c r="U27" s="4">
         <v>347.213639</v>
       </c>
-      <c r="V27" s="4"/>
+      <c r="V27" s="4">
+        <v>222.78121300000001</v>
+      </c>
       <c r="W27" s="6" t="s">
         <v>104</v>
       </c>
@@ -8156,7 +8178,9 @@
       <c r="U28" s="4">
         <v>11578.130343000001</v>
       </c>
-      <c r="V28" s="4"/>
+      <c r="V28" s="4">
+        <v>14051.394007000001</v>
+      </c>
       <c r="W28" s="6" t="s">
         <v>101</v>
       </c>
@@ -8301,7 +8325,9 @@
       <c r="U29" s="4">
         <v>15376.793691999999</v>
       </c>
-      <c r="V29" s="4"/>
+      <c r="V29" s="4">
+        <v>18930.893253999999</v>
+      </c>
       <c r="W29" s="6" t="s">
         <v>98</v>
       </c>
@@ -8346,7 +8372,9 @@
       <c r="U30" s="4">
         <v>11930.893007999999</v>
       </c>
-      <c r="V30" s="4"/>
+      <c r="V30" s="4">
+        <v>13729.120532999999</v>
+      </c>
       <c r="W30" s="6" t="s">
         <v>99</v>
       </c>
@@ -8402,7 +8430,9 @@
       <c r="U31" s="4">
         <v>15156.102965</v>
       </c>
-      <c r="V31" s="4"/>
+      <c r="V31" s="4">
+        <v>17593.419802</v>
+      </c>
       <c r="W31" s="6" t="s">
         <v>98</v>
       </c>
@@ -12072,10 +12102,25 @@
     <hyperlink ref="V15" r:id="rId558" display="https://www.sec.gov/Archives/edgar/data/1218710/000095012325008224/0000950123-25-008224-index.htm" xr:uid="{A0BC13A8-B069-4256-9702-0CCE7F541DE9}"/>
     <hyperlink ref="V98" r:id="rId559" display="https://www.sec.gov/Archives/edgar/data/1649339/000187920225000038/0001879202-25-000038-index.htm" xr:uid="{ECDF00EA-5869-4C6F-85FA-643E55306B38}"/>
     <hyperlink ref="V16" r:id="rId560" display="https://www.sec.gov/Archives/edgar/data/1649339/000187920225000038/0001879202-25-000038-index.htm" xr:uid="{AFB35F17-3F68-474E-81ED-E1F09AA0E84C}"/>
+    <hyperlink ref="V17" r:id="rId561" display="https://www.sec.gov/Archives/edgar/data/1603466/000090266425003670/0000902664-25-003670-index.htm" xr:uid="{CE4BF1C8-4EFB-4363-9D92-FF5CE88EC723}"/>
+    <hyperlink ref="V18" r:id="rId562" display="https://www.sec.gov/Archives/edgar/data/1556921/000121465925012239/0001214659-25-012239-index.htm" xr:uid="{B749BBB8-CE34-4A84-8F18-2B0563676A3B}"/>
+    <hyperlink ref="V19" r:id="rId563" display="https://www.sec.gov/Archives/edgar/data/1103804/000110380425000007/0001103804-25-000007-index.htm" xr:uid="{AFA5485F-27D5-4DF9-B96B-9BE2F1A4C2EA}"/>
+    <hyperlink ref="V20" r:id="rId564" display="https://www.sec.gov/Archives/edgar/data/1135730/000091957425004823/0000919574-25-004823-index.htm" xr:uid="{C49A66D0-E713-4368-B5BC-A17E6B5CFBCE}"/>
+    <hyperlink ref="V21" r:id="rId565" display="https://www.sec.gov/Archives/edgar/data/1167483/000091957425004870/0000919574-25-004870-index.htm" xr:uid="{394F8615-8F68-4BE4-939A-8FF692F30B4C}"/>
+    <hyperlink ref="V22" r:id="rId566" display="https://www.sec.gov/Archives/edgar/data/1350694/000117266125003151/0001172661-25-003151-index.htm" xr:uid="{A296DF66-1237-4741-959A-7B3AA567AE04}"/>
+    <hyperlink ref="V23" r:id="rId567" display="https://www.sec.gov/Archives/edgar/data/1454027/000145402725000004/0001454027-25-000004-index.htm" xr:uid="{71D2BC8F-5097-46E1-BC88-322E9E6CF7C9}"/>
+    <hyperlink ref="V24" r:id="rId568" display="https://www.sec.gov/Archives/edgar/data/1453072/000117266125003461/0001172661-25-003461-index.htm" xr:uid="{534D2CBA-3B61-4E03-98BE-EBD9033E1B91}"/>
+    <hyperlink ref="V25" r:id="rId569" display="https://www.sec.gov/Archives/edgar/data/909661/000090883425000248/0000908834-25-000248-index.htm" xr:uid="{34E540DF-9820-41F6-9FA9-4E773E97BCF3}"/>
+    <hyperlink ref="V26" r:id="rId570" display="https://www.sec.gov/Archives/edgar/data/1393825/000139382525000062/0001393825-25-000062-index.htm" xr:uid="{023BED06-0BF0-4FEA-AC04-AD9138009451}"/>
+    <hyperlink ref="V27" r:id="rId571" display="https://www.sec.gov/Archives/edgar/data/1410830/000117266125003340/0001172661-25-003340-index.htm" xr:uid="{29E5AAA2-EEFD-4EE7-96E9-5922DF54A730}"/>
+    <hyperlink ref="V28" r:id="rId572" display="https://www.sec.gov/Archives/edgar/data/1061165/000090266425003627/0000902664-25-003627-index.htm" xr:uid="{E0ACE282-E5A8-45B2-B6BA-15C2ED5EA10E}"/>
+    <hyperlink ref="V29" r:id="rId573" display="https://www.sec.gov/Archives/edgar/data/1784547/000117266125003349/0001172661-25-003349-index.htm" xr:uid="{C5D6AC9F-4D6D-4B70-9787-FB5EBA411E32}"/>
+    <hyperlink ref="V30" r:id="rId574" display="https://www.sec.gov/Archives/edgar/data/1336528/000117266125003509/0001172661-25-003509-index.htm" xr:uid="{9D083965-04E7-4AC8-8C03-EB9584CFCB5F}"/>
+    <hyperlink ref="V31" r:id="rId575" display="https://www.sec.gov/Archives/edgar/data/1791786/000101359425001045/0001013594-25-001045-index.htm" xr:uid="{866D7355-5ECD-4A13-BD27-DA60870A0352}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId561"/>
-  <legacyDrawing r:id="rId562"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId576"/>
+  <legacyDrawing r:id="rId577"/>
 </worksheet>
 </file>
 
